--- a/root_node/no_exact/datos_verificacion_softplus_1como7.xlsx
+++ b/root_node/no_exact/datos_verificacion_softplus_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +544,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -597,6 +609,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +674,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -715,6 +739,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -774,6 +804,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -833,6 +869,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -892,6 +934,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -951,6 +999,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1010,6 +1064,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1069,6 +1129,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1124,6 +1190,1008 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1957049369812012</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.13670489841723</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.194737434387207</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.13670489841731</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1748011112213135</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.603670324952783</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2156918048858643</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>112.5234902337411</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2096414566040039</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>112.5234902337411</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2526595592498779</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>173.9949928347528</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4141030311584473</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8.013156307582632</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4178550243377686</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.013156307582632</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3674237728118896</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.960773601188162e+21</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5320253372192383</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>137.5954963933564</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5325884819030762</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>137.5954945958674</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.493039608001709</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>305.2870579657727</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4571127891540527</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>74.85362286345109</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5731821060180664</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>63.77059098787636</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4002358913421631</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7.761297436619998</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2094490528106689</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>104.7651677355993</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1997661590576172</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>104.7651677355993</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3211865425109863</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>151.761987236598</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7391045093536377</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>102.6816086108012</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6785962581634521</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>115.7576124625548</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.7930977344512939</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.89171965744393</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4784953594207764</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>114.1171012192476</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7171056270599365</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>114.948811589037</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8664896488189697</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>286.0363899941518</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8030261993408203</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>408.9243361060883</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9628555774688721</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>338.1288169361471</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5773026943206787</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>11.81478641956257</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1386373043060303</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100.9531933518739</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1480586528778076</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>100.9531933518739</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5513472557067871</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>103.1319394241341</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.577561378479004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>324.9581809899205</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1.57846999168396</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>351.9558799275599</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.546351671218872</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>14.64564266802048</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4913110733032227</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>104.3794577570556</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5191555023193359</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>104.3794577570556</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.231909513473511</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>117.3540195919876</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>

--- a/root_node/no_exact/datos_verificacion_softplus_1como7.xlsx
+++ b/root_node/no_exact/datos_verificacion_softplus_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2197,6 +2197,570 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2451322078704834</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.845350362747256</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2661490440368652</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>115.9953700487415</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.484525203704834</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.398489764103636</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5281527042388916</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>154.6068660583758</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5176162719726562</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>22.44601346714069</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4572579860687256</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>107.109814205206</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.05998158454895</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18.92887441023625</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1.115452527999878</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>123.3419963999478</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6353075504302979</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>232.9342391894684</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5519964694976807</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>101.3115951913821</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1.544442415237427</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>37255.71243727062</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1.606081962585449</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>107.5376255945249</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
